--- a/biology/Médecine/Vasodilatateur/Vasodilatateur.xlsx
+++ b/biology/Médecine/Vasodilatateur/Vasodilatateur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Un vasodilatateur (contraire de vasoconstricteur) est une substance qui permet de dilater les vaisseaux sanguins, c'est-à-dire d'augmenter leur lumière, en relâchant les muscles lisses des parois de ces vaisseaux[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Un vasodilatateur (contraire de vasoconstricteur) est une substance qui permet de dilater les vaisseaux sanguins, c'est-à-dire d'augmenter leur lumière, en relâchant les muscles lisses des parois de ces vaisseaux.
 La conséquence principale est la diminution de la pression artérielle car il y a plus de place disponible au sang pour circuler.
 Par ailleurs, les vasodilatateurs augmentent le débit sanguin du territoire où ils provoquent une vasodilatation.
 Ils peuvent agir spécifiquement sur certains vaisseaux :
@@ -526,9 +538,11 @@
           <t>Vasodilatateurs naturels et médicaments qui les utilisent</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Adénosine[2]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Adénosine
 Adenocard - utilisé en premier lieu comme antiarythmique.
 L'adrénaline a un effet vasodilatateur sur les artérioles à paroi musculaire lisse (par action sur les récepteurs adrénergiques beta-2) par augmentation de la production d'AMPc. Lorsque la dose administrée est importante, l'adrénaline obtient au contraire un effet vasoconstricteur (par action sur les récepteurs adrénergiques alpha-1). La noradrénaline et l'adrénaline en haute dose ont donc un effet vasoconstricteur sur les artérioles par leur action sur les récepteurs alpha-adrénergiques : ceux-ci, par l'intermédiaire d'une protéine Gq, vont déclencher une cascade qui provoque la hausse de concentration du calcium cytoplasmique, ce qui va stimuler la Myosin Light Chain Kinase et engendrer la contraction du muscle lisse.
 Alpha-bloquants et bêta-bloquants (bloquent l'effet constricteur de la noradrénaline).
@@ -541,7 +555,7 @@
 Oxyde nitrique (NO)
 Nitroglycérine
 Facteur d'activation plaquettaire (PAF)
-Prostacycline[3] (PGI2) et d'autres prostaglandines.
+Prostacycline (PGI2) et d'autres prostaglandines.
 Tétrahydrocannabinol (THC) - le principal principe actif du cannabis. Ses effets vasodilatateurs modérés font rougir les yeux des fumeurs de cannabis.
 Inhibiteurs du système rénine-angiotensine : inhibiteurs de la rénine, inhibiteurs de l'enzyme de conversion, inhibiteurs de l'angiotensine...
 Médicaments usuels
